--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>29.58549266748376</v>
+        <v>8.091835285277</v>
       </c>
       <c r="R2">
-        <v>118.341970669935</v>
+        <v>32.367341141108</v>
       </c>
       <c r="S2">
-        <v>0.01643817017802245</v>
+        <v>0.002582547796838273</v>
       </c>
       <c r="T2">
-        <v>0.009395804512936741</v>
+        <v>0.001279668500371693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>16.634580741254</v>
+        <v>11.04361323274533</v>
       </c>
       <c r="R3">
-        <v>99.80748444752402</v>
+        <v>66.261679396472</v>
       </c>
       <c r="S3">
-        <v>0.009242437573646274</v>
+        <v>0.003524621796893649</v>
       </c>
       <c r="T3">
-        <v>0.007924252127019481</v>
+        <v>0.00261970804261405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>4.3648183734175</v>
+        <v>1.243506717725333</v>
       </c>
       <c r="R4">
-        <v>26.188910240505</v>
+        <v>7.461040306352</v>
       </c>
       <c r="S4">
-        <v>0.002425162495172953</v>
+        <v>0.0003968710954927969</v>
       </c>
       <c r="T4">
-        <v>0.002079278210711304</v>
+        <v>0.000294978145360116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>30.05889395282701</v>
+        <v>14.3748642782535</v>
       </c>
       <c r="R5">
-        <v>120.235575811308</v>
+        <v>57.499457113014</v>
       </c>
       <c r="S5">
-        <v>0.01670119945992181</v>
+        <v>0.004587806444750431</v>
       </c>
       <c r="T5">
-        <v>0.009546147993211003</v>
+        <v>0.002273286635909269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>8.140039000928001</v>
+        <v>45.10781314995833</v>
       </c>
       <c r="R6">
-        <v>48.84023400556801</v>
+        <v>270.64687889975</v>
       </c>
       <c r="S6">
-        <v>0.00452273510726616</v>
+        <v>0.0143963735498392</v>
       </c>
       <c r="T6">
-        <v>0.003877688435342111</v>
+        <v>0.01070023898911044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>11.4269832951785</v>
+        <v>3.216716345905</v>
       </c>
       <c r="R7">
-        <v>68.56189977107101</v>
+        <v>19.30029807543</v>
       </c>
       <c r="S7">
-        <v>0.006349013624302767</v>
+        <v>0.001026630352608103</v>
       </c>
       <c r="T7">
-        <v>0.005443497379989161</v>
+        <v>0.0007630525901784565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N8">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O8">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P8">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q8">
-        <v>254.4870138727</v>
+        <v>104.8418135694533</v>
       </c>
       <c r="R8">
-        <v>1526.9220832362</v>
+        <v>629.05088141672</v>
       </c>
       <c r="S8">
-        <v>0.1413970316179289</v>
+        <v>0.03346076447489774</v>
       </c>
       <c r="T8">
-        <v>0.1212305433089957</v>
+        <v>0.02487002545469108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P9">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q9">
         <v>143.0865061956089</v>
@@ -1013,10 +1013,10 @@
         <v>1287.77855576048</v>
       </c>
       <c r="S9">
-        <v>0.07950113812392794</v>
+        <v>0.04566674040005572</v>
       </c>
       <c r="T9">
-        <v>0.1022436545325456</v>
+        <v>0.05091334645241812</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N10">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O10">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P10">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q10">
-        <v>37.54507678584444</v>
+        <v>16.11148705774222</v>
       </c>
       <c r="R10">
-        <v>337.9056910726</v>
+        <v>145.00338351968</v>
       </c>
       <c r="S10">
-        <v>0.02086064168304153</v>
+        <v>0.005142057881537337</v>
       </c>
       <c r="T10">
-        <v>0.02682814726807258</v>
+        <v>0.005732823759866559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N11">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O11">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P11">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q11">
-        <v>258.5590934160267</v>
+        <v>186.24783965746</v>
       </c>
       <c r="R11">
-        <v>1551.35456049616</v>
+        <v>1117.48703794476</v>
       </c>
       <c r="S11">
-        <v>0.1436595437641341</v>
+        <v>0.05944188568054816</v>
       </c>
       <c r="T11">
-        <v>0.1231703688738549</v>
+        <v>0.04418073624884172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N12">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O12">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P12">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q12">
-        <v>70.01858111459556</v>
+        <v>584.4391006572222</v>
       </c>
       <c r="R12">
-        <v>630.16723003136</v>
+        <v>5259.951905915</v>
       </c>
       <c r="S12">
-        <v>0.0389034370636114</v>
+        <v>0.1865265244010442</v>
       </c>
       <c r="T12">
-        <v>0.05003236020420369</v>
+        <v>0.2079563699138946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N13">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O13">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P13">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q13">
-        <v>98.29205445543555</v>
+        <v>41.67736533846667</v>
       </c>
       <c r="R13">
-        <v>884.62849009892</v>
+        <v>375.0962880462</v>
       </c>
       <c r="S13">
-        <v>0.05461262844075256</v>
+        <v>0.01330152978134878</v>
       </c>
       <c r="T13">
-        <v>0.07023540602282258</v>
+        <v>0.014829729211506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N14">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O14">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P14">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q14">
-        <v>177.090958515725</v>
+        <v>114.92549313954</v>
       </c>
       <c r="R14">
-        <v>1062.54575109435</v>
+        <v>689.55295883724</v>
       </c>
       <c r="S14">
-        <v>0.09839455255277947</v>
+        <v>0.03667901886832722</v>
       </c>
       <c r="T14">
-        <v>0.08436121273642412</v>
+        <v>0.02726202306563351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P15">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q15">
-        <v>99.57021439813779</v>
+        <v>156.84855809224</v>
       </c>
       <c r="R15">
-        <v>896.1319295832401</v>
+        <v>1411.63702283016</v>
       </c>
       <c r="S15">
-        <v>0.05532279442950294</v>
+        <v>0.05005896485255852</v>
       </c>
       <c r="T15">
-        <v>0.07114872585355722</v>
+        <v>0.05581018917182502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N16">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O16">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P16">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q16">
-        <v>26.12665194333889</v>
+        <v>17.66108895184</v>
       </c>
       <c r="R16">
-        <v>235.13986749005</v>
+        <v>158.94980056656</v>
       </c>
       <c r="S16">
-        <v>0.01451638327113559</v>
+        <v>0.005636620711413531</v>
       </c>
       <c r="T16">
-        <v>0.01866901671171547</v>
+        <v>0.006284206417778887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N17">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O17">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P17">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q17">
-        <v>179.9246137915134</v>
+        <v>204.16114611207</v>
       </c>
       <c r="R17">
-        <v>1079.54768274908</v>
+        <v>1224.96687667242</v>
       </c>
       <c r="S17">
-        <v>0.09996897648320989</v>
+        <v>0.06515900281003482</v>
       </c>
       <c r="T17">
-        <v>0.08571108738584754</v>
+        <v>0.04843003690795999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N18">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O18">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P18">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q18">
-        <v>48.72412723463111</v>
+        <v>640.6504195824999</v>
       </c>
       <c r="R18">
-        <v>438.5171451116801</v>
+        <v>5765.853776242499</v>
       </c>
       <c r="S18">
-        <v>0.02707189987539945</v>
+        <v>0.2044666347381863</v>
       </c>
       <c r="T18">
-        <v>0.03481623085804509</v>
+        <v>0.2279576015539881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N19">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O19">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P19">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q19">
-        <v>68.39890913530111</v>
+        <v>45.68589192810001</v>
       </c>
       <c r="R19">
-        <v>615.5901822177101</v>
+        <v>411.1730273529</v>
       </c>
       <c r="S19">
-        <v>0.03800352155679686</v>
+        <v>0.01458087014699622</v>
       </c>
       <c r="T19">
-        <v>0.04887501010383408</v>
+        <v>0.01625605171002819</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N20">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O20">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P20">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q20">
-        <v>18.2171146981575</v>
+        <v>4.895931956674</v>
       </c>
       <c r="R20">
-        <v>72.86845879262999</v>
+        <v>19.583727826696</v>
       </c>
       <c r="S20">
-        <v>0.01012171860467233</v>
+        <v>0.001562560017896571</v>
       </c>
       <c r="T20">
-        <v>0.005785418225661474</v>
+        <v>0.0007742582101638018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P21">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q21">
-        <v>10.24265739715867</v>
+        <v>6.681893172210668</v>
       </c>
       <c r="R21">
-        <v>61.455944382952</v>
+        <v>40.09135903326401</v>
       </c>
       <c r="S21">
-        <v>0.00569098332287446</v>
+        <v>0.002132558051694281</v>
       </c>
       <c r="T21">
-        <v>0.004879317424843477</v>
+        <v>0.001585043673136379</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N22">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O22">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P22">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q22">
-        <v>2.687614427748333</v>
+        <v>0.7523786709706668</v>
       </c>
       <c r="R22">
-        <v>16.12568656649</v>
+        <v>4.514272025824001</v>
       </c>
       <c r="S22">
-        <v>0.001493281312999443</v>
+        <v>0.0002401252386635659</v>
       </c>
       <c r="T22">
-        <v>0.001280304846690562</v>
+        <v>0.0001784753245060132</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N23">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O23">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P23">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q23">
-        <v>18.508609100846</v>
+        <v>8.697453038967002</v>
       </c>
       <c r="R23">
-        <v>74.03443640338401</v>
+        <v>34.78981215586801</v>
       </c>
       <c r="S23">
-        <v>0.01028367752998713</v>
+        <v>0.00277583358929181</v>
       </c>
       <c r="T23">
-        <v>0.005877991449134834</v>
+        <v>0.001375442813038814</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N24">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O24">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P24">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q24">
-        <v>5.012187080810667</v>
+        <v>27.29229848491667</v>
       </c>
       <c r="R24">
-        <v>30.073122484864</v>
+        <v>163.7537909095</v>
       </c>
       <c r="S24">
-        <v>0.002784850843095954</v>
+        <v>0.008710467136067174</v>
       </c>
       <c r="T24">
-        <v>0.002387666677864184</v>
+        <v>0.006474135985708164</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N25">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O25">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P25">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q25">
-        <v>7.036106097059665</v>
+        <v>1.94626111361</v>
       </c>
       <c r="R25">
-        <v>42.216636582358</v>
+        <v>11.67756668166</v>
       </c>
       <c r="S25">
-        <v>0.003909372431752886</v>
+        <v>0.0006211585102542592</v>
       </c>
       <c r="T25">
-        <v>0.003351805469150443</v>
+        <v>0.00046168185945096</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N26">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O26">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P26">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q26">
-        <v>16.5827662845225</v>
+        <v>13.01710308184767</v>
       </c>
       <c r="R26">
-        <v>99.496597707135</v>
+        <v>78.10261849108599</v>
       </c>
       <c r="S26">
-        <v>0.00921364863756172</v>
+        <v>0.004154470487851952</v>
       </c>
       <c r="T26">
-        <v>0.007899569159329968</v>
+        <v>0.003087848959970801</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P27">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q27">
-        <v>9.323737406489332</v>
+        <v>17.76554351128044</v>
       </c>
       <c r="R27">
-        <v>83.913636658404</v>
+        <v>159.889891601524</v>
       </c>
       <c r="S27">
-        <v>0.005180416763906489</v>
+        <v>0.005669957881887507</v>
       </c>
       <c r="T27">
-        <v>0.006662354205770124</v>
+        <v>0.006321373662369064</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N28">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O28">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P28">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q28">
-        <v>2.446495104011666</v>
+        <v>2.000393551887111</v>
       </c>
       <c r="R28">
-        <v>22.018455936105</v>
+        <v>18.003541966984</v>
       </c>
       <c r="S28">
-        <v>0.001359311582586631</v>
+        <v>0.0006384351359246308</v>
       </c>
       <c r="T28">
-        <v>0.001748163449376398</v>
+        <v>0.0007117843090611241</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N29">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O29">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P29">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q29">
-        <v>16.848109267378</v>
+        <v>23.1244314176855</v>
       </c>
       <c r="R29">
-        <v>101.088655604268</v>
+        <v>138.746588506113</v>
       </c>
       <c r="S29">
-        <v>0.009361077418172045</v>
+        <v>0.007380272497580514</v>
       </c>
       <c r="T29">
-        <v>0.008025971184664325</v>
+        <v>0.005485456407162522</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N30">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O30">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P30">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q30">
-        <v>4.562518725525333</v>
+        <v>72.56364382973609</v>
       </c>
       <c r="R30">
-        <v>41.062668529728</v>
+        <v>653.0727944676249</v>
       </c>
       <c r="S30">
-        <v>0.002535007954524566</v>
+        <v>0.02315903276528781</v>
       </c>
       <c r="T30">
-        <v>0.003260185748984331</v>
+        <v>0.02581975083731973</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N31">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O31">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P31">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q31">
-        <v>6.404861850732332</v>
+        <v>5.174639223798334</v>
       </c>
       <c r="R31">
-        <v>57.64375665659099</v>
+        <v>46.571753014185</v>
       </c>
       <c r="S31">
-        <v>0.00355864309080023</v>
+        <v>0.001651510770513148</v>
       </c>
       <c r="T31">
-        <v>0.00457664737092486</v>
+        <v>0.001841251188336036</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N32">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O32">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P32">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q32">
-        <v>35.397531102495</v>
+        <v>59.40906928692333</v>
       </c>
       <c r="R32">
-        <v>212.38518661497</v>
+        <v>356.45441572154</v>
       </c>
       <c r="S32">
-        <v>0.01966743115230143</v>
+        <v>0.01896068760548232</v>
       </c>
       <c r="T32">
-        <v>0.01686240041112324</v>
+        <v>0.01409270800553735</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P33">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q33">
-        <v>19.90242636089867</v>
+        <v>81.08059056959556</v>
       </c>
       <c r="R33">
-        <v>179.121837248088</v>
+        <v>729.72531512636</v>
       </c>
       <c r="S33">
-        <v>0.01105810456337543</v>
+        <v>0.02587725690892966</v>
       </c>
       <c r="T33">
-        <v>0.01422144449051898</v>
+        <v>0.02885026902951362</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N34">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O34">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P34">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q34">
-        <v>5.222282280923332</v>
+        <v>9.12964415952889</v>
       </c>
       <c r="R34">
-        <v>47.00054052831</v>
+        <v>82.16679743576</v>
       </c>
       <c r="S34">
-        <v>0.002901583077094998</v>
+        <v>0.00291376944523428</v>
       </c>
       <c r="T34">
-        <v>0.003731625291571661</v>
+        <v>0.003248529497575045</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N35">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O35">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P35">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q35">
-        <v>35.963931564716</v>
+        <v>105.538147748845</v>
       </c>
       <c r="R35">
-        <v>215.783589388296</v>
+        <v>633.2288864930699</v>
       </c>
       <c r="S35">
-        <v>0.019982132255695</v>
+        <v>0.03368300284696682</v>
       </c>
       <c r="T35">
-        <v>0.01713221785571736</v>
+        <v>0.02503520619867897</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N36">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O36">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P36">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q36">
-        <v>9.739140968490666</v>
+        <v>331.1749562776388</v>
       </c>
       <c r="R36">
-        <v>87.652268716416</v>
+        <v>2980.57460649875</v>
       </c>
       <c r="S36">
-        <v>0.005411221588469696</v>
+        <v>0.1056960656699217</v>
       </c>
       <c r="T36">
-        <v>0.006959184280206287</v>
+        <v>0.1178393807608764</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N37">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O37">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P37">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q37">
-        <v>13.67180195864467</v>
+        <v>23.61666019301667</v>
       </c>
       <c r="R37">
-        <v>123.046217627802</v>
+        <v>212.54994173715</v>
       </c>
       <c r="S37">
-        <v>0.007596270569576282</v>
+        <v>0.00753736965718099</v>
       </c>
       <c r="T37">
-        <v>0.009769299939339376</v>
+        <v>0.008403330505619607</v>
       </c>
     </row>
   </sheetData>
